--- a/servo_data.xlsx
+++ b/servo_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazib\freelance\plastic_separation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8CFC31-338D-4F05-A8A9-0FFE15D24EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB96E40-44DA-4D9A-81CB-9FFB5603D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3977BBC-CA08-4AD5-AEC5-26057304E5A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -33,22 +33,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Hover S1 Angle</t>
-  </si>
-  <si>
-    <t>Hover S2 Angle</t>
-  </si>
-  <si>
-    <t>Hover S3 Angle</t>
-  </si>
-  <si>
-    <t>Touch S1 Angle</t>
-  </si>
-  <si>
-    <t>Touch S2 Angle</t>
-  </si>
-  <si>
-    <t>Touch S3 Angle</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Hover</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -400,11 +394,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC4AA8-47FC-44C7-BA71-6DB0881D43A1}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -416,7 +408,7 @@
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,22 +416,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
